--- a/data/financial_statements/soci/PLD.xlsx
+++ b/data/financial_statements/soci/PLD.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -131,9 +251,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -186,12 +303,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -488,1584 +602,1620 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN37"/>
+  <dimension ref="A1:AO37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>1751592000</v>
+      </c>
+      <c r="C2">
         <v>1750892000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>1252080000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>1219128000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>1277233000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>1183049000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>1150842000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>1148316000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>1111597000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>1082773000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>1266124000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>978241000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>826015900</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>942181000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>790372000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>772052000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>807085100</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>682432000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>621276000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>693656000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>619922000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>602874000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>766183000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>629155000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>620115100</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>704565000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>602155000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>606300000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>643200900</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>580622000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>510404000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>462847000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>450865000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>415151000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>460089000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>434682000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>436764000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>423058000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>410693000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>479971000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>0.3714</v>
+      </c>
+      <c r="C3">
         <v>0.48</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.08799999999999999</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.0617</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.149</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.0926</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>-0.0911</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.1739</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.3457</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>0.1492</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>0.6019</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>0.2671</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>0.0235</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>0.3806</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>0.2722</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>0.113</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>0.3019</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>0.132</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>-0.1891</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>0.1025</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>-0.0003</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>-0.1443</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>0.2724</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>0.0377</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>-0.0359</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>0.2135</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>0.1798</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>0.3099</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>0.4266</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>0.3986</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>0.1094</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>0.0648</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>0.0323</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>-0.0187</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>0.1203</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>-0.0944</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>-0.09089999999999999</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>-0.153</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>-0.1805</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>0.0011</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>438830000</v>
+      </c>
+      <c r="C4">
         <v>415262000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>327517000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>327485000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>321925000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>308996000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>290232000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>327334000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>290977000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>291281000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>313654000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>274192000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>230189000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>244268000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>218344000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>226126000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>220134000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>182574000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>168179000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>186801000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>175698000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>164731000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>199780000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>184455000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>171773000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>185138000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>168591000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>171874000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>182744000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>166816000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>150767000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>152277000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>148860000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>124766000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>137413000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>134680000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>127277000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>128834000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>134843000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>150263000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>1312762000</v>
+      </c>
+      <c r="C5">
         <v>1335630000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>924563000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>891643100</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>955308000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>874053000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>860610000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>820982100</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>820619900</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>791491900</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>952470000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>704049100</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>595826900</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>697913000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>572028000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>545926000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>586951000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>499858000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>453097000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>506855000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>444224000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>438143000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>566403000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>444700000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>448342100</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>519427000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>433564000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>434426000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>460456800</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>413806000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>359637000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>310570000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>302005000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>290385000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>322676000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>300002000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>309487000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>294224000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>275850000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>329708000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>85420000</v>
+      </c>
+      <c r="C6">
         <v>87903000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>83114000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>74646000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>73823000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>66970000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>74342000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>78032000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>66144000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>74348000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>64664000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>69689000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>65542000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>65199000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>66276000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>69701000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>56698000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>62244000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>57615000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>62428000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>59709000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>57656000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>60077000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>53617000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>56433000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>58157000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>56934000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>50543000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>59769000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>54178000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>51974000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>51306000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>47551000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>58203000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>60375000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>63203000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>63067000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>55034000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>54909000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>56197000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
+        <v>813449000</v>
+      </c>
+      <c r="C7">
         <v>914969900</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>533317000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>1205802000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1208273000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>765660000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>700866100</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>532197000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>482380100</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>556519900</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>611987000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>468057000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>559639500</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>471480100</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>442056000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>376590000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>598646100</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>375579000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>281555000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>432218000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>1341382000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>175491000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>275272000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>161886000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>164208100</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>232624000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>142348000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>129198000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>105550800</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>103392000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>87348000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>83881000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>74956100</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>78112000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>95274000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>71466000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>71477900</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>77381000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>58514000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>97039000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B8">
+        <v>120796000</v>
+      </c>
+      <c r="C8">
         <v>63884000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>60293000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>64064000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>62897000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>63638000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>68412000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>71281000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>76856000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>80711000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>81298000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>75642000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>60080000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>60244000</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>59122000</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>60507000</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>61396000</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>64186000</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>56314000</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>47245000</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>62030000</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>64190000</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>75354000</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>72912000</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>70569000</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>75310000</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>76455000</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>80812000</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>82665000</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>81035000</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>68902000</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>68761000</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>74092000</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>69086000</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>80184000</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>85523000</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>87830000</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>84642000</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>92214000</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>114641000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
+        <v>-175696000</v>
+      </c>
+      <c r="C9">
         <v>192873000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>162953000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>43142000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>132491000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>91506000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>-1358000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>-106787000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>-133493000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>-211845000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>-110538000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>84020000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>-112111000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>32619000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>-4598000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>10687000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>110562000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>13897000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>97540000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>-23707000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>-990228000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>755872900</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>27489000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>68403000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>320460000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>90537000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>158585000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>109144000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>23226000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>218122000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>57763000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>269322000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>352414000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>45751000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>48238000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>-52583000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>-39793000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>-113871000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>-58618000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>244132000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>637753000</v>
+      </c>
+      <c r="C10">
         <v>1107843000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>696270000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>1248944000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>1340764000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>857166000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>699508000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>425410000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>348887100</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>344675000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>501449000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>552077000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>447529000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>504099000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>437458000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>387277000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>709208000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>389476000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>379095000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>408511000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>351154000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>931364000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>302761000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>230289000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>484668000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>323161000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>300933000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>238342000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>128776900</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>321514000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>145111000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>353203000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>427370000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>123863000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>143512000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>18883000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>31685000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>-36490000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>-104000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>341171000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>17687000</v>
+      </c>
+      <c r="C11">
         <v>38669000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>49834000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>29222000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>39911000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>59435000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>49195000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>25717000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>40880000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>12154000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>46511000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>30913000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>21287000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>13086000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>26632000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>13512000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>18718000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>13956000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>14104000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>16552000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>12281000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>17947000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>14781000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>9600000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>17966000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>15919000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>5142000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>15537000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>2020000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>14328000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>4851000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>1891000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>-354000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>-23264000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>-8918000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>6880000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>22199000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>12180000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>20488000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>51866000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>620066000</v>
+      </c>
+      <c r="C12">
         <v>1069174000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>646436000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>1219722000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>1300853000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>797731000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>650313000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>399693000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>308007000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>332521000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>454938000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>521164000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>426241900</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>491013000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>410826000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>373765000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>690490100</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>375520000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>364991000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>391959000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>338873000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>913417000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>287980000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>220689000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>466702000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>307242000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>295791000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>222805000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>126757000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>307186000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>140260000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>351312000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>427724000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>147127000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>152430000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>12003000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>9486000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>-48670000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>-20592000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>289305000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
+        <v>1460000</v>
+      </c>
+      <c r="C13">
         <v>1531000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>1538000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>1531000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>1538000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>1531000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>1551000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>1532000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>1424000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>3999000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>1634000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>1635000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>1511000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>1507000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>1492000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>1499000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>1492000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>1491000</v>
-      </c>
-      <c r="S13">
-        <v>1476000</v>
       </c>
       <c r="T13">
         <v>1476000</v>
       </c>
       <c r="U13">
+        <v>1476000</v>
+      </c>
+      <c r="V13">
         <v>5371000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>1675000</v>
-      </c>
-      <c r="W13">
-        <v>1674000</v>
       </c>
       <c r="X13">
         <v>1674000</v>
       </c>
       <c r="Y13">
+        <v>1674000</v>
+      </c>
+      <c r="Z13">
         <v>1658000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>1671000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>1696000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>1689000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>1632000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>1671000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>1678000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>1670000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>1678000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>1670000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>8465000</v>
-      </c>
-      <c r="AJ13">
-        <v>2135000</v>
       </c>
       <c r="AK13">
         <v>2135000</v>
@@ -2074,2622 +2224,2667 @@
         <v>2135000</v>
       </c>
       <c r="AM13">
+        <v>2135000</v>
+      </c>
+      <c r="AN13">
         <v>3816000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>19413000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
+        <v>32852000</v>
+      </c>
+      <c r="C14">
         <v>53710000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>35043000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>68937000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>52191000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>74193000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>50137000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>32346000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>26113000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>29827000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>48765000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>30111000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>39251000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>38867000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>25550000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>25219000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>92430000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>27684000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>28904000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>24581000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>37987000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>35524000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>19363000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>15760000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>24505000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>26316000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>18712000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>13075000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>6762000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>46536000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>-1658000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>4436000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>17437000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>9212000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>71250000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>5202000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>7077000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>-1768000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>-7284000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>12103000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
+        <v>585754000</v>
+      </c>
+      <c r="C15">
         <v>1013933000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>609855000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>1149254000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>1247124000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>722007000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>598625000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>365815000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>280470000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>298695000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>404539000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>489418000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>385479900</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>450639000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>383784000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>347047000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>596568100</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>346345000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>334611000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>365902000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>295515000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>876218000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>266943000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>203255000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>440539000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>279255000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>275383000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>208041000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>118363000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>258979000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>140240000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>345206000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>408609000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>136245000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>72715000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>4666000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>59057000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>-7534000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>-1517000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>265416000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16">
         <v>1.37</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>0.82</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>1.54</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>1.69</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>0.98</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>0.8100000000000001</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>0.5</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>0.38</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>0.4</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>0.54</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>0.7</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>0.61</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>0.71</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>0.6</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>0.55</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>0.9399999999999999</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>0.6</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>0.62</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>0.68</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>0.55</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>1.65</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>0.5</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>0.38</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>0.82</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>0.53</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>0.52</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>0.4</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>0.23</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>0.49</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>0.27</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>0.67</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>0.8100000000000001</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>0.27</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>0.15</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>0.01</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>0.12</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>-0.02</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>0</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>0.58</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17">
         <v>1.36</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>0.82</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>1.54</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>1.67</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>0.97</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>0.8100000000000001</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>0.49</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>0.38</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>0.4</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>0.54</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>0.7</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>0.61</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>0.71</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>0.6</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>0.55</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>0.9399999999999999</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>0.6</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>0.62</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>0.68</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>0.55</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>1.63</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>0.5</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>0.38</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>0.82</v>
-      </c>
-      <c r="Z17">
-        <v>0.52</v>
       </c>
       <c r="AA17">
         <v>0.52</v>
       </c>
       <c r="AB17">
+        <v>0.52</v>
+      </c>
+      <c r="AC17">
         <v>0.39</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>0.23</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>0.49</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>0.27</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>0.65</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>0.8100000000000001</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>0.23</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>0.13</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>0.01</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>0.12</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>-0.02</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>0</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>0.57</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18">
         <v>740719000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>740637000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>740368000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>739363000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>739439000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>739190000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>738998000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>728323000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>738194000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>737992000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>698272000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>630580000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>630929000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>630271000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>629676000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>567367000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>574520000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>532639000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>532185000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>530400000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>531288000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>530040000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>528721000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>526103000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>527288000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>524842000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>524205000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>521241000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>523528000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>523476000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>514022000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>499583000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>499292000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>499112000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>498696000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>486076000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>497989000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>486032000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>461468000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
+        <v>946953000</v>
+      </c>
+      <c r="C19">
         <v>766372000</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>766074000</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>765517000</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>764762000</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>764945000</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>764652000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>764958000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>754414000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>764619000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>765830000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>723983000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>654903000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>655259000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>655447000</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>654359000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>590239000</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>597647000</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>554515000</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>554123000</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>552300000</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>554163000</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>552114000</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>550010000</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>546666000</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>547200000</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>545388000</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>543562000</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>533944000</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>532073000</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>530640000</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>529022000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>506391000</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>516088000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>516619000</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>504373000</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>491546000</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>499848000</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>487925000</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>478952000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
+        <v>0.7495000000000001</v>
+      </c>
+      <c r="C20">
         <v>0.7628</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>0.7383999999999999</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>0.7314000000000001</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>0.748</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>0.7388</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>0.7478</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>0.7149</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>0.7382</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>0.731</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>0.7523</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>0.7197</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>0.7213000000000001</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>0.7407</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>0.7237</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>0.7071</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>0.7272</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>0.7325</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>0.7292999999999999</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>0.7307</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>0.7166</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>0.7268</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>0.7393</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>0.7068</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>0.723</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>0.7372</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>0.72</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>0.7165</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>0.7159</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>0.7127</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>0.7046</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>0.671</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>0.6698</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>0.6995</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>0.7013</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>0.6902</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>0.7086</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>0.6955</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>0.6717</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>0.6869</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
+        <v>0.4644</v>
+      </c>
+      <c r="C21">
         <v>0.5226</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>0.4259</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>0.9891</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>0.946</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>0.6472</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>0.609</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>0.4635</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>0.434</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>0.514</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>0.4834</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>0.4785</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>0.6775</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>0.5004</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>0.5593</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>0.4878</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>0.7417</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>0.5504</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>0.4532</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>0.6231</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>2.1638</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>0.2911</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>0.3593</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>0.2573</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>0.2648</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>0.3302</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>0.2364</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>0.2131</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>0.1641</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>0.1781</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>0.1711</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>0.1812</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>0.1662</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>0.1882</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>0.2071</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>0.1644</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>0.1637</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>0.1829</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>0.1425</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>0.2022</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>0.3641</v>
+      </c>
+      <c r="C22">
         <v>0.6327</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>0.5561</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>1.0245</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>1.0497</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>0.7245</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>0.6078</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>0.3705</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>0.3139</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>0.3183</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>0.3961</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>0.5644</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>0.5417999999999999</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>0.535</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>0.5535</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>0.5016</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>0.8787</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>0.5707</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>0.6102</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>0.5889</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>0.5664</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>1.5449</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>0.3952</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>0.366</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>0.7816</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>0.4587</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>0.4998</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>0.3931</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>0.2002</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>0.5537</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>0.2843</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>0.7631</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>0.9479</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>0.2984</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>0.3119</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>0.0434</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>0.0725</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>-0.0863</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>-0.0003</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>0.7108</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
+        <v>0.3344</v>
+      </c>
+      <c r="C23">
         <v>0.5790999999999999</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>0.4871</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>0.9427</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>0.9764</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>0.6103</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>0.5202</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>0.3186</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>0.2523</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>0.2759</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>0.3195</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>0.5003</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>0.4667</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>0.4783</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>0.4856</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>0.4495</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>0.7392</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>0.5075</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>0.5386</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>0.5275</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>0.4767</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>1.4534</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>0.3484</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>0.3231</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>0.7104</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>0.3964</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>0.4573</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>0.3431</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>0.184</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>0.446</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>0.2748</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>0.7458</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>0.9063</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>0.3282</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>0.158</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>0.0107</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>0.1352</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>-0.0178</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>-0.0037</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>0.553</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24">
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24">
         <v>1284121000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>902633100</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>1567055000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>1567926000</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>1122797000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>1059427000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>895205000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>864046100</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>923634900</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>983299000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>791464000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>831974500</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>732725000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>706676000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>636849000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>867958100</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>611840100</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>476876000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>624253000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>1551432000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>362940000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>478454000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>360075000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>368910100</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>422509000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>345675000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>353524000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>406423800</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>305441000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>274401000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>242438000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>237946000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>202364000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>263171000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>237072000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>196095900</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>238807000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>219832900</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>276962000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
+        <v>813449000</v>
+      </c>
+      <c r="C25">
         <v>914969900</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>533317000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>1205802000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>1208273000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>765660000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>700866100</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>532197000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>482379900</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>556519900</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>611987000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>468057000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>559639800</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>471480100</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>442056000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>376590000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>598645900</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>375579000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>281555000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>432218000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>1341382000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>175491000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>275272000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>161886000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>164208000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>232624000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>142348000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>129198000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>105551000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>103392000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>87348000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>83881000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>74956000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>78112000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>95274000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>71466000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>71477900</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>77381000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>58514000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>97039000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>620066000</v>
+      </c>
+      <c r="C26">
         <v>1069174000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>646436000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>1219722000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>1300853000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>797731000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>650313000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>399693000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>308007000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>332521000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>454938000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>521164000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>426241900</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>491013000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>410826000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>373765000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>690490100</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>375520000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>364991000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>391959000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>338873000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>913417000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>287980000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>220689000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>466702000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>307242000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>295791000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>222805000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>126757000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>307186000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>140260000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>351312000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>427724000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>147127000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>152430000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>12003000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>9486000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>-48670000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>-20592000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>289305000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="AK27">
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL27">
         <v>58783000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>41503000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>15607000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>7627000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
+        <v>620066000</v>
+      </c>
+      <c r="C28">
         <v>1069174000</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>646436000</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>1219722000</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>1300853000</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>797731000</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>650313000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>399693000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>308007000</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>332521000</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>454938000</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>521164000</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>426242000</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>491013000</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>410826000</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>373765000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>690490000</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>375520000</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>364991000</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>391959000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>338873000</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>913417000</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>287980000</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>220689000</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>466702100</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>307242000</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>295791000</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>222805000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>126757000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>307186000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>140260000</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>351312000</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>427724000</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>147127000</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>152430000</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>12003000</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>68269000</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>-7167000</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>-4985000</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>296932000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29">
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29">
         <v>1.4434</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>0.8728</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>1.6475</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>1.7591</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>1.0788</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>0.8798</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>0.5409</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>0.4064</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>0.4505</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>0.6165</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>0.7464</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>0.6752</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>0.7782</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>0.6518</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>0.5936</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>1.1376</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>0.6536</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>0.6853</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>0.7365</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>0.6401</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>1.7193</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>0.5433</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>0.4174</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>0.8855</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>0.5827</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>0.5636</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>0.425</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>0.2374</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>0.5868</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>0.2679</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>0.6835</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>0.8557</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>0.2947</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>0.3054</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>0.0241</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>-0.03</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>-0.1</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>-0.03</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>0.5600000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
+        <v>0.6548</v>
+      </c>
+      <c r="C30">
         <v>1.3951</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>0.8438</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>1.5933</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>1.7013</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>1.0429</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>0.8505</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>0.5225</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>0.3941</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>0.4349</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>0.594</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>0.7199</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>0.6513</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>0.7493</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>0.6268</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>0.5712</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>1.0946</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>0.6283</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>0.6582</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>0.7074</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>0.6173</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>1.6483</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>0.5216</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>0.4012</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>0.8507</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>0.5615</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>0.5423</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>0.4099</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>0.2276</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>0.5773</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>0.2643</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>0.6641</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>0.856</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>0.2851</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>0.2951</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>0.0238</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>-0.03</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>-0.1</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>-0.03</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>0.55</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK31">
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL31">
         <v>0.12</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>0.08</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>0.03</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>0.02</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK32">
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL32">
         <v>0.12</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <v>0.08</v>
       </c>
-      <c r="AM32">
+      <c r="AN32">
         <v>0.03</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
         <v>0.02</v>
       </c>
     </row>
-    <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33">
+    <row r="33" spans="1:41">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33">
         <v>1.4434</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>0.8728</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>1.6475</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>1.7591</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>1.0788</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>0.8798</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>0.5409</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>0.4064</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>0.4505</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>0.6165</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>0.7464</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>0.6752</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>0.7782</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>0.6518</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>0.5936</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>1.1376</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>0.6536</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>0.6853</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>0.7365</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>0.6401</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>1.7193</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>0.5433</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>0.4174</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>0.8855</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>0.5827</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>0.5636</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>0.425</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>0.2374</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>0.5868</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <v>0.2679</v>
       </c>
-      <c r="AF33">
+      <c r="AG33">
         <v>0.6835</v>
       </c>
-      <c r="AG33">
+      <c r="AH33">
         <v>0.8557</v>
       </c>
-      <c r="AH33">
+      <c r="AI33">
         <v>0.2947</v>
       </c>
-      <c r="AI33">
+      <c r="AJ33">
         <v>0.3054</v>
       </c>
-      <c r="AJ33">
+      <c r="AK33">
         <v>0.0241</v>
       </c>
-      <c r="AK33">
+      <c r="AL33">
         <v>0.1075</v>
       </c>
-      <c r="AL33">
+      <c r="AM33">
         <v>-0.0144</v>
       </c>
-      <c r="AM33">
+      <c r="AN33">
         <v>-0.0103</v>
       </c>
-      <c r="AN33">
+      <c r="AO33">
         <v>0.6435</v>
       </c>
     </row>
-    <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+    <row r="34" spans="1:41">
+      <c r="A34" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B34">
+        <v>0.6548</v>
+      </c>
+      <c r="C34">
         <v>1.3951</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>0.8438</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>1.5933</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>1.7013</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>1.0429</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>0.8505</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>0.5225</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>0.3941</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>0.4349</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>0.594</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>0.7199</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>0.6513</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>0.7493</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>0.6268</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>0.5712</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>1.0946</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>0.6283</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>0.6582</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>0.7074</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>0.6173</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>1.6483</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>0.5216</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>0.4012</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>0.8507</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>0.5615</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>0.5423</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>0.4099</v>
       </c>
-      <c r="AC34">
+      <c r="AD34">
         <v>0.2276</v>
       </c>
-      <c r="AD34">
+      <c r="AE34">
         <v>0.5773</v>
       </c>
-      <c r="AE34">
+      <c r="AF34">
         <v>0.2643</v>
       </c>
-      <c r="AF34">
+      <c r="AG34">
         <v>0.6641</v>
       </c>
-      <c r="AG34">
+      <c r="AH34">
         <v>0.856</v>
       </c>
-      <c r="AH34">
+      <c r="AI34">
         <v>0.2851</v>
       </c>
-      <c r="AI34">
+      <c r="AJ34">
         <v>0.2951</v>
       </c>
-      <c r="AJ34">
+      <c r="AK34">
         <v>0.0238</v>
       </c>
-      <c r="AK34">
+      <c r="AL34">
         <v>0.1228</v>
       </c>
-      <c r="AL34">
+      <c r="AM34">
         <v>-0.0143</v>
       </c>
-      <c r="AM34">
+      <c r="AN34">
         <v>-0.0102</v>
       </c>
-      <c r="AN34">
+      <c r="AO34">
         <v>0.62</v>
       </c>
     </row>
-    <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35">
+    <row r="35" spans="1:41">
+      <c r="A35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35">
         <v>766372000</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>766074000</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>765517000</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>765559000</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>764945000</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>764652000</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>764958000</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>764761000</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>764619000</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>765830000</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>723983000</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>655408000</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>655259000</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>655447000</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>654359000</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>654579000</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>597647000</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>554515000</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <v>554123000</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>554401000</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>554163000</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>552114000</v>
       </c>
-      <c r="X35">
+      <c r="Y35">
         <v>550010000</v>
       </c>
-      <c r="Y35">
+      <c r="Z35">
         <v>550885000</v>
       </c>
-      <c r="Z35">
+      <c r="AA35">
         <v>547200000</v>
       </c>
-      <c r="AA35">
+      <c r="AB35">
         <v>545388000</v>
       </c>
-      <c r="AB35">
+      <c r="AC35">
         <v>543562000</v>
       </c>
-      <c r="AC35">
+      <c r="AD35">
         <v>542435000</v>
       </c>
-      <c r="AD35">
+      <c r="AE35">
         <v>532073000</v>
       </c>
-      <c r="AE35">
+      <c r="AF35">
         <v>530640000</v>
       </c>
-      <c r="AF35">
+      <c r="AG35">
         <v>529022000</v>
       </c>
-      <c r="AG35">
+      <c r="AH35">
         <v>507896000</v>
       </c>
-      <c r="AH35">
+      <c r="AI35">
         <v>516088000</v>
       </c>
-      <c r="AI35">
+      <c r="AJ35">
         <v>516619000</v>
       </c>
-      <c r="AJ35">
+      <c r="AK35">
         <v>504373000</v>
       </c>
-      <c r="AK35">
+      <c r="AL35">
         <v>503760000</v>
       </c>
-      <c r="AL35">
+      <c r="AM35">
         <v>499848000</v>
       </c>
-      <c r="AM35">
+      <c r="AN35">
         <v>486032000</v>
       </c>
-      <c r="AN35">
+      <c r="AO35">
         <v>477059000</v>
       </c>
     </row>
-    <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+    <row r="36" spans="1:41">
+      <c r="A36" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
         <v>0.7334000000000001</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>0.7209</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>1.2854</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>1.2276</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>0.9491000000000001</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>0.9206</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>0.7796</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>0.7773</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>0.853</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>0.7766</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>0.8091</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>1.0072</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>0.7776999999999999</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>0.8941</v>
       </c>
-      <c r="P36">
+      <c r="Q36">
         <v>0.8249</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <v>1.0754</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <v>0.8966</v>
       </c>
-      <c r="S36">
+      <c r="T36">
         <v>0.7675999999999999</v>
       </c>
-      <c r="T36">
+      <c r="U36">
         <v>0.8999</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>2.5026</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>0.602</v>
       </c>
-      <c r="W36">
+      <c r="X36">
         <v>0.6245000000000001</v>
       </c>
-      <c r="X36">
+      <c r="Y36">
         <v>0.5723</v>
       </c>
-      <c r="Y36">
+      <c r="Z36">
         <v>0.5949</v>
       </c>
-      <c r="Z36">
+      <c r="AA36">
         <v>0.5997</v>
       </c>
-      <c r="AA36">
+      <c r="AB36">
         <v>0.5741000000000001</v>
       </c>
-      <c r="AB36">
+      <c r="AC36">
         <v>0.5831</v>
       </c>
-      <c r="AC36">
+      <c r="AD36">
         <v>0.6319</v>
       </c>
-      <c r="AD36">
+      <c r="AE36">
         <v>0.5261</v>
       </c>
-      <c r="AE36">
+      <c r="AF36">
         <v>0.5376</v>
       </c>
-      <c r="AF36">
+      <c r="AG36">
         <v>0.5238</v>
       </c>
-      <c r="AG36">
+      <c r="AH36">
         <v>0.5278</v>
       </c>
-      <c r="AH36">
+      <c r="AI36">
         <v>0.4874</v>
       </c>
-      <c r="AI36">
+      <c r="AJ36">
         <v>0.572</v>
       </c>
-      <c r="AJ36">
+      <c r="AK36">
         <v>0.5454</v>
       </c>
-      <c r="AK36">
+      <c r="AL36">
         <v>0.449</v>
       </c>
-      <c r="AL36">
+      <c r="AM36">
         <v>0.5645</v>
       </c>
-      <c r="AM36">
+      <c r="AN36">
         <v>0.5353</v>
       </c>
-      <c r="AN36">
+      <c r="AO36">
         <v>0.577</v>
       </c>
     </row>
-    <row r="37" spans="1:40">
-      <c r="A37" t="s">
-        <v>36</v>
+    <row r="37" spans="1:41">
+      <c r="A37" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
         <v>0.6873</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>0.6421</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>0.6903</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>0.5606</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>0.6881</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>0.5641</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>0.7112000000000001</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>0.5431</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>0.9032</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>0.5341</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>0.6942</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>0.7462</v>
       </c>
-      <c r="N37">
+      <c r="O37">
         <v>0.6837</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>0.6435</v>
       </c>
-      <c r="P37">
+      <c r="Q37">
         <v>0.641</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <v>0.6562</v>
       </c>
-      <c r="R37">
+      <c r="S37">
         <v>0.7337</v>
       </c>
-      <c r="S37">
+      <c r="T37">
         <v>0.6824</v>
       </c>
-      <c r="T37">
+      <c r="U37">
         <v>0.5034999999999999</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <v>0.5274</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <v>1.0204</v>
       </c>
-      <c r="W37">
+      <c r="X37">
         <v>0.5121</v>
       </c>
-      <c r="X37">
+      <c r="Y37">
         <v>0.5607</v>
       </c>
-      <c r="Y37">
+      <c r="Z37">
         <v>0.6773</v>
       </c>
-      <c r="Z37">
+      <c r="AA37">
         <v>0.5157</v>
       </c>
-      <c r="AA37">
+      <c r="AB37">
         <v>0.5809</v>
       </c>
-      <c r="AB37">
+      <c r="AC37">
         <v>0.4682</v>
       </c>
-      <c r="AC37">
+      <c r="AD37">
         <v>0.5593</v>
       </c>
-      <c r="AD37">
+      <c r="AE37">
         <v>0.6901</v>
       </c>
-      <c r="AE37">
+      <c r="AF37">
         <v>0.5375</v>
       </c>
-      <c r="AF37">
+      <c r="AG37">
         <v>0.1762</v>
       </c>
-      <c r="AG37">
+      <c r="AH37">
         <v>0.9841</v>
       </c>
-      <c r="AH37">
+      <c r="AI37">
         <v>0.3491</v>
       </c>
-      <c r="AI37">
+      <c r="AJ37">
         <v>0.5078</v>
       </c>
-      <c r="AJ37">
+      <c r="AK37">
         <v>0.1662</v>
       </c>
-      <c r="AK37">
+      <c r="AL37">
         <v>0.3497</v>
       </c>
-      <c r="AL37">
+      <c r="AM37">
         <v>0.3042</v>
       </c>
-      <c r="AM37">
+      <c r="AN37">
         <v>0.1812</v>
       </c>
-      <c r="AN37">
+      <c r="AO37">
         <v>0.2691</v>
       </c>
     </row>
